--- a/Gcore_Service_Recommendations.xlsx
+++ b/Gcore_Service_Recommendations.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcorelu-my.sharepoint.com/personal/yuliya_yevtushenko_gcore_lu/Documents/Desktop/Gcore/Events 2025/IBC/IBC marketing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\company-description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1152EDC5-DF76-48AF-99A5-7F76E3A33F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0AEFA-26E1-41F6-8AA1-5088A9992086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22908" yWindow="-564" windowWidth="23004" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3c8823d1-8588-4b2c-b080-b9593af" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="708">
   <si>
     <t>Company</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>Telekom Austria</t>
   </si>
   <si>
     <t>ABC (American Broadcasting Company)</t>
@@ -2189,7 +2186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2316,16 +2313,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F461" sqref="F461"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" customWidth="1"/>
-    <col min="2" max="2" width="48.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="91.7265625" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="91.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,9 +2410,6 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -2425,10 +2419,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2439,7 +2433,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2450,54 +2444,54 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -2508,65 +2502,65 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -2577,10 +2571,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2591,40 +2585,40 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -2635,79 +2629,79 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2718,18 +2712,18 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2740,7 +2734,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2751,35 +2745,35 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2790,18 +2784,18 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2812,7 +2806,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2823,18 +2817,18 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2845,7 +2839,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2856,18 +2850,18 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="s">
-        <v>74</v>
-      </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -2878,7 +2872,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2889,79 +2883,79 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2972,32 +2966,32 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
         <v>84</v>
       </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -3008,46 +3002,46 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
         <v>89</v>
       </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="B60" t="s">
-        <v>92</v>
-      </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3058,21 +3052,21 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3083,7 +3077,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -3094,51 +3088,51 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -3149,18 +3143,18 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3171,18 +3165,18 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -3193,7 +3187,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -3204,35 +3198,35 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
         <v>108</v>
       </c>
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
         <v>110</v>
-      </c>
-      <c r="B77" t="s">
-        <v>111</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -3243,32 +3237,32 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
         <v>112</v>
       </c>
-      <c r="B78" t="s">
-        <v>113</v>
-      </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3279,7 +3273,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3290,21 +3284,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -3315,43 +3309,43 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
         <v>122</v>
-      </c>
-      <c r="B87" t="s">
-        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -3362,10 +3356,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
         <v>124</v>
-      </c>
-      <c r="B88" t="s">
-        <v>125</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3376,7 +3370,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -3387,10 +3381,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
         <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -3401,18 +3395,18 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -3423,24 +3417,24 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
         <v>131</v>
       </c>
-      <c r="B93" t="s">
-        <v>132</v>
-      </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" t="s">
         <v>133</v>
-      </c>
-      <c r="B94" t="s">
-        <v>134</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -3451,43 +3445,43 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" t="s">
         <v>136</v>
       </c>
-      <c r="B96" t="s">
-        <v>137</v>
-      </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -3498,7 +3492,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -3509,7 +3503,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -3520,7 +3514,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -3531,18 +3525,18 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -3553,18 +3547,18 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -3575,32 +3569,32 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
         <v>147</v>
       </c>
-      <c r="B106" t="s">
-        <v>148</v>
-      </c>
       <c r="C106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -3611,43 +3605,43 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
         <v>154</v>
-      </c>
-      <c r="B112" t="s">
-        <v>155</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -3658,18 +3652,18 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -3680,7 +3674,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -3691,32 +3685,32 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" t="s">
         <v>161</v>
-      </c>
-      <c r="B118" t="s">
-        <v>162</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -3727,46 +3721,46 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
         <v>165</v>
       </c>
-      <c r="B121" t="s">
-        <v>166</v>
-      </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -3777,7 +3771,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -3788,38 +3782,38 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
         <v>169</v>
       </c>
-      <c r="B124" t="s">
-        <v>170</v>
-      </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" t="s">
         <v>172</v>
-      </c>
-      <c r="B126" t="s">
-        <v>173</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -3830,35 +3824,35 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" t="s">
         <v>174</v>
       </c>
-      <c r="B127" t="s">
-        <v>175</v>
-      </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" t="s">
         <v>176</v>
       </c>
-      <c r="B128" t="s">
-        <v>177</v>
-      </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -3869,18 +3863,18 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -3891,35 +3885,35 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
         <v>181</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>182</v>
       </c>
-      <c r="C132" t="s">
-        <v>183</v>
-      </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" t="s">
         <v>185</v>
-      </c>
-      <c r="B134" t="s">
-        <v>186</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
@@ -3930,29 +3924,29 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
@@ -3963,7 +3957,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -3974,21 +3968,21 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" t="s">
         <v>192</v>
-      </c>
-      <c r="B140" t="s">
-        <v>193</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -3999,85 +3993,85 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" t="s">
         <v>196</v>
       </c>
-      <c r="B143" t="s">
-        <v>197</v>
-      </c>
       <c r="C143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" t="s">
         <v>198</v>
       </c>
-      <c r="B144" t="s">
-        <v>199</v>
-      </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" t="s">
         <v>200</v>
       </c>
-      <c r="B145" t="s">
-        <v>201</v>
-      </c>
       <c r="C145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -4088,24 +4082,24 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" t="s">
         <v>204</v>
       </c>
-      <c r="B148" t="s">
-        <v>205</v>
-      </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
@@ -4116,29 +4110,29 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -4149,10 +4143,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>209</v>
+      </c>
+      <c r="B153" t="s">
         <v>210</v>
-      </c>
-      <c r="B153" t="s">
-        <v>211</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
@@ -4163,10 +4157,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -4177,10 +4171,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
@@ -4191,10 +4185,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" t="s">
         <v>214</v>
-      </c>
-      <c r="B156" t="s">
-        <v>215</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -4205,32 +4199,32 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157" t="s">
         <v>216</v>
       </c>
-      <c r="B157" t="s">
-        <v>217</v>
-      </c>
       <c r="C157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -4241,10 +4235,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" t="s">
         <v>220</v>
-      </c>
-      <c r="B160" t="s">
-        <v>221</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -4255,7 +4249,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -4266,7 +4260,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -4288,18 +4282,18 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C165" t="s">
         <v>17</v>
@@ -4310,32 +4304,32 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167" t="s">
         <v>228</v>
       </c>
-      <c r="C167" t="s">
-        <v>229</v>
-      </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" t="s">
         <v>230</v>
-      </c>
-      <c r="B168" t="s">
-        <v>231</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
@@ -4346,21 +4340,21 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C169" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
@@ -4371,32 +4365,32 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" t="s">
         <v>236</v>
-      </c>
-      <c r="B173" t="s">
-        <v>237</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
@@ -4407,82 +4401,82 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" t="s">
         <v>240</v>
       </c>
-      <c r="B176" t="s">
-        <v>241</v>
-      </c>
       <c r="C176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>244</v>
+      </c>
+      <c r="B180" t="s">
         <v>245</v>
-      </c>
-      <c r="B180" t="s">
-        <v>246</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -4493,18 +4487,18 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C181" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
@@ -4515,43 +4509,43 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" t="s">
         <v>249</v>
       </c>
-      <c r="B183" t="s">
-        <v>250</v>
-      </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -4562,18 +4556,18 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C187" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -4584,24 +4578,24 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>255</v>
+      </c>
+      <c r="B189" t="s">
         <v>256</v>
       </c>
-      <c r="B189" t="s">
-        <v>257</v>
-      </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
@@ -4612,40 +4606,40 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C191" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C192" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -4656,10 +4650,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>262</v>
+      </c>
+      <c r="B195" t="s">
         <v>263</v>
-      </c>
-      <c r="B195" t="s">
-        <v>264</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
@@ -4670,7 +4664,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -4681,10 +4675,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>265</v>
+      </c>
+      <c r="B197" t="s">
         <v>266</v>
-      </c>
-      <c r="B197" t="s">
-        <v>267</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -4695,18 +4689,18 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -4717,10 +4711,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" t="s">
         <v>270</v>
-      </c>
-      <c r="B200" t="s">
-        <v>271</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -4731,10 +4725,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>271</v>
+      </c>
+      <c r="B201" t="s">
         <v>272</v>
-      </c>
-      <c r="B201" t="s">
-        <v>273</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -4745,117 +4739,117 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -4866,35 +4860,35 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C213" t="s">
         <v>285</v>
       </c>
-      <c r="C213" t="s">
-        <v>286</v>
-      </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>287</v>
+      </c>
+      <c r="B215" t="s">
         <v>288</v>
-      </c>
-      <c r="B215" t="s">
-        <v>289</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
@@ -4905,7 +4899,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -4916,10 +4910,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>290</v>
+      </c>
+      <c r="B217" t="s">
         <v>291</v>
-      </c>
-      <c r="B217" t="s">
-        <v>292</v>
       </c>
       <c r="C217" t="s">
         <v>17</v>
@@ -4930,29 +4924,29 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
@@ -4963,32 +4957,32 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C221" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>296</v>
+      </c>
+      <c r="B222" t="s">
         <v>297</v>
       </c>
-      <c r="B222" t="s">
-        <v>298</v>
-      </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -4999,32 +4993,32 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
@@ -5035,7 +5029,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -5046,10 +5040,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B228" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
@@ -5060,29 +5054,29 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C231" t="s">
         <v>17</v>
@@ -5093,46 +5087,46 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B232" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C233" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>309</v>
+      </c>
+      <c r="B234" t="s">
         <v>310</v>
       </c>
-      <c r="B234" t="s">
-        <v>311</v>
-      </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -5143,7 +5137,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -5154,32 +5148,32 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B237" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C238" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -5190,21 +5184,21 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>316</v>
+      </c>
+      <c r="B240" t="s">
         <v>317</v>
       </c>
-      <c r="B240" t="s">
-        <v>318</v>
-      </c>
       <c r="C240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -5215,7 +5209,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
@@ -5226,93 +5220,93 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C244" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>322</v>
+      </c>
+      <c r="B245" t="s">
         <v>323</v>
       </c>
-      <c r="B245" t="s">
-        <v>324</v>
-      </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C249" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C250" t="s">
         <v>17</v>
@@ -5323,10 +5317,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>329</v>
+      </c>
+      <c r="B251" t="s">
         <v>330</v>
-      </c>
-      <c r="B251" t="s">
-        <v>331</v>
       </c>
       <c r="C251" t="s">
         <v>17</v>
@@ -5337,87 +5331,87 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C254" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D254" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>334</v>
+      </c>
+      <c r="B255" t="s">
         <v>335</v>
       </c>
-      <c r="B255" t="s">
-        <v>336</v>
-      </c>
       <c r="C255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C259" t="s">
         <v>17</v>
@@ -5428,43 +5422,43 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>341</v>
+      </c>
+      <c r="B262" t="s">
         <v>342</v>
       </c>
-      <c r="B262" t="s">
-        <v>343</v>
-      </c>
       <c r="C262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
@@ -5475,7 +5469,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C264" t="s">
         <v>17</v>
@@ -5486,10 +5480,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>345</v>
+      </c>
+      <c r="B265" t="s">
         <v>346</v>
-      </c>
-      <c r="B265" t="s">
-        <v>347</v>
       </c>
       <c r="C265" t="s">
         <v>17</v>
@@ -5500,68 +5494,68 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>349</v>
+      </c>
+      <c r="B268" t="s">
         <v>350</v>
       </c>
-      <c r="B268" t="s">
-        <v>351</v>
-      </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>353</v>
+      </c>
+      <c r="B271" t="s">
         <v>354</v>
-      </c>
-      <c r="B271" t="s">
-        <v>355</v>
       </c>
       <c r="C271" t="s">
         <v>17</v>
@@ -5572,10 +5566,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B272" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C272" t="s">
         <v>17</v>
@@ -5586,18 +5580,18 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -5608,18 +5602,18 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C275" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
@@ -5630,7 +5624,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -5641,29 +5635,29 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C278" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C280" t="s">
         <v>13</v>
@@ -5674,7 +5668,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C281" t="s">
         <v>13</v>
@@ -5685,32 +5679,32 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C282" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B283" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C283" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C284" t="s">
         <v>13</v>
@@ -5721,21 +5715,21 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C285" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>369</v>
+      </c>
+      <c r="B286" t="s">
         <v>370</v>
-      </c>
-      <c r="B286" t="s">
-        <v>371</v>
       </c>
       <c r="C286" t="s">
         <v>17</v>
@@ -5746,18 +5740,18 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C287" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C288" t="s">
         <v>13</v>
@@ -5768,57 +5762,57 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C289" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C290" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D290" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>375</v>
+      </c>
+      <c r="B291" t="s">
         <v>376</v>
       </c>
-      <c r="B291" t="s">
-        <v>377</v>
-      </c>
       <c r="C291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B293" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C293" t="s">
         <v>17</v>
@@ -5829,32 +5823,32 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C295" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B296" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -5865,10 +5859,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>382</v>
+      </c>
+      <c r="B297" t="s">
         <v>383</v>
-      </c>
-      <c r="B297" t="s">
-        <v>384</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
@@ -5879,18 +5873,18 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C298" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D298" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C299" t="s">
         <v>9</v>
@@ -5901,7 +5895,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -5912,7 +5906,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C301" t="s">
         <v>13</v>
@@ -5923,21 +5917,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>388</v>
+      </c>
+      <c r="B302" t="s">
         <v>389</v>
       </c>
-      <c r="B302" t="s">
-        <v>390</v>
-      </c>
       <c r="C302" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C303" t="s">
         <v>13</v>
@@ -5948,10 +5942,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" t="s">
         <v>13</v>
@@ -5962,21 +5956,21 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B305" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C305" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C306" t="s">
         <v>13</v>
@@ -5987,24 +5981,24 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B307" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C307" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>395</v>
+      </c>
+      <c r="B308" t="s">
         <v>396</v>
-      </c>
-      <c r="B308" t="s">
-        <v>397</v>
       </c>
       <c r="C308" t="s">
         <v>13</v>
@@ -6015,7 +6009,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
@@ -6026,32 +6020,32 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C310" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C311" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B312" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C312" t="s">
         <v>13</v>
@@ -6062,18 +6056,18 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C313" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D313" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -6084,7 +6078,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C315" t="s">
         <v>13</v>
@@ -6095,32 +6089,32 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C316" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D316" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C317" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -6131,7 +6125,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C319" t="s">
         <v>17</v>
@@ -6142,7 +6136,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C320" t="s">
         <v>9</v>
@@ -6153,7 +6147,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C321" t="s">
         <v>17</v>
@@ -6164,10 +6158,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B322" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C322" t="s">
         <v>9</v>
@@ -6178,21 +6172,21 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>410</v>
+      </c>
+      <c r="B323" t="s">
         <v>411</v>
       </c>
-      <c r="B323" t="s">
-        <v>412</v>
-      </c>
       <c r="C323" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C324" t="s">
         <v>9</v>
@@ -6203,21 +6197,21 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>413</v>
+      </c>
+      <c r="B325" t="s">
         <v>414</v>
       </c>
-      <c r="B325" t="s">
-        <v>415</v>
-      </c>
       <c r="C325" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C326" t="s">
         <v>13</v>
@@ -6228,10 +6222,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B327" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C327" t="s">
         <v>17</v>
@@ -6242,10 +6236,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>417</v>
+      </c>
+      <c r="B328" t="s">
         <v>418</v>
-      </c>
-      <c r="B328" t="s">
-        <v>419</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -6256,32 +6250,32 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>419</v>
+      </c>
+      <c r="B329" t="s">
         <v>420</v>
       </c>
-      <c r="B329" t="s">
-        <v>421</v>
-      </c>
       <c r="C329" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C330" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" t="s">
         <v>17</v>
@@ -6292,29 +6286,29 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C334" t="s">
         <v>17</v>
@@ -6325,32 +6319,32 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C336" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>428</v>
+      </c>
+      <c r="B337" t="s">
         <v>429</v>
-      </c>
-      <c r="B337" t="s">
-        <v>430</v>
       </c>
       <c r="C337" t="s">
         <v>17</v>
@@ -6361,38 +6355,38 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B338" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C338" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B339" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C339" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>432</v>
+      </c>
+      <c r="B340" t="s">
         <v>433</v>
-      </c>
-      <c r="B340" t="s">
-        <v>434</v>
       </c>
       <c r="C340" t="s">
         <v>17</v>
@@ -6403,10 +6397,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>434</v>
+      </c>
+      <c r="B341" t="s">
         <v>435</v>
-      </c>
-      <c r="B341" t="s">
-        <v>436</v>
       </c>
       <c r="C341" t="s">
         <v>17</v>
@@ -6417,10 +6411,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B342" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C342" t="s">
         <v>17</v>
@@ -6431,21 +6425,21 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B343" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
@@ -6456,7 +6450,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -6467,24 +6461,24 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>440</v>
+      </c>
+      <c r="B346" t="s">
         <v>441</v>
       </c>
-      <c r="B346" t="s">
-        <v>442</v>
-      </c>
       <c r="C346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B347" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C347" t="s">
         <v>17</v>
@@ -6495,51 +6489,51 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C348" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C349" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C350" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D351" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C352" t="s">
         <v>13</v>
@@ -6550,32 +6544,32 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C354" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D354" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B355" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C355" t="s">
         <v>13</v>
@@ -6586,46 +6580,46 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C356" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D356" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B357" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C357" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D357" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C358" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>454</v>
+      </c>
+      <c r="B359" t="s">
         <v>455</v>
-      </c>
-      <c r="B359" t="s">
-        <v>456</v>
       </c>
       <c r="C359" t="s">
         <v>17</v>
@@ -6636,7 +6630,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C360" t="s">
         <v>13</v>
@@ -6647,7 +6641,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C361" t="s">
         <v>9</v>
@@ -6658,7 +6652,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C362" t="s">
         <v>13</v>
@@ -6669,43 +6663,43 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C363" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D363" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>460</v>
+      </c>
+      <c r="B364" t="s">
         <v>461</v>
       </c>
-      <c r="B364" t="s">
-        <v>462</v>
-      </c>
       <c r="C364" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C365" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D365" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C366" t="s">
         <v>9</v>
@@ -6716,10 +6710,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B367" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C367" t="s">
         <v>13</v>
@@ -6730,10 +6724,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>465</v>
+      </c>
+      <c r="B368" t="s">
         <v>466</v>
-      </c>
-      <c r="B368" t="s">
-        <v>467</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -6744,29 +6738,29 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C369" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C370" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D370" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C371" t="s">
         <v>13</v>
@@ -6777,7 +6771,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C372" t="s">
         <v>13</v>
@@ -6788,18 +6782,18 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C373" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C374" t="s">
         <v>9</v>
@@ -6810,32 +6804,32 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C375" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C376" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D376" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>475</v>
+      </c>
+      <c r="B377" t="s">
         <v>476</v>
-      </c>
-      <c r="B377" t="s">
-        <v>477</v>
       </c>
       <c r="C377" t="s">
         <v>17</v>
@@ -6846,10 +6840,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B378" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C378" t="s">
         <v>9</v>
@@ -6860,32 +6854,32 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>477</v>
+      </c>
+      <c r="B379" t="s">
         <v>478</v>
       </c>
-      <c r="B379" t="s">
-        <v>479</v>
-      </c>
       <c r="C379" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D379" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D380" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C381" t="s">
         <v>17</v>
@@ -6896,7 +6890,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C382" t="s">
         <v>17</v>
@@ -6907,29 +6901,29 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C383" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D383" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C384" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D384" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C385" t="s">
         <v>13</v>
@@ -6940,18 +6934,18 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C386" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D386" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C387" t="s">
         <v>13</v>
@@ -6962,7 +6956,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C388" t="s">
         <v>9</v>
@@ -6973,7 +6967,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C389" t="s">
         <v>13</v>
@@ -6984,7 +6978,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C390" t="s">
         <v>13</v>
@@ -6995,7 +6989,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -7006,7 +7000,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C392" t="s">
         <v>13</v>
@@ -7017,10 +7011,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B393" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C393" t="s">
         <v>13</v>
@@ -7031,18 +7025,18 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C394" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D394" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C395" t="s">
         <v>9</v>
@@ -7053,43 +7047,43 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>494</v>
+      </c>
+      <c r="B396" t="s">
         <v>495</v>
       </c>
-      <c r="B396" t="s">
-        <v>496</v>
-      </c>
       <c r="C396" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D396" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C397" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D397" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C398" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D398" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C399" t="s">
         <v>9</v>
@@ -7100,7 +7094,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C400" t="s">
         <v>13</v>
@@ -7111,10 +7105,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B401" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C401" t="s">
         <v>13</v>
@@ -7125,18 +7119,18 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C402" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D402" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C403" t="s">
         <v>13</v>
@@ -7147,29 +7141,29 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C404" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D404" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C405" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D405" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C406" t="s">
         <v>13</v>
@@ -7180,7 +7174,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C407" t="s">
         <v>9</v>
@@ -7191,32 +7185,32 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C408" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D408" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>507</v>
+      </c>
+      <c r="B409" t="s">
         <v>508</v>
       </c>
-      <c r="B409" t="s">
-        <v>509</v>
-      </c>
       <c r="C409" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D409" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C410" t="s">
         <v>9</v>
@@ -7227,54 +7221,54 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C411" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D411" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C412" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D412" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>512</v>
+      </c>
+      <c r="B413" t="s">
         <v>513</v>
       </c>
-      <c r="B413" t="s">
-        <v>514</v>
-      </c>
       <c r="C413" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D413" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C414" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D414" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C415" t="s">
         <v>17</v>
@@ -7285,7 +7279,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C416" t="s">
         <v>13</v>
@@ -7296,10 +7290,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B417" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C417" t="s">
         <v>17</v>
@@ -7310,10 +7304,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>518</v>
+      </c>
+      <c r="B418" t="s">
         <v>519</v>
-      </c>
-      <c r="B418" t="s">
-        <v>520</v>
       </c>
       <c r="C418" t="s">
         <v>9</v>
@@ -7324,21 +7318,21 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B419" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C419" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D419" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C420" t="s">
         <v>13</v>
@@ -7349,7 +7343,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C421" t="s">
         <v>17</v>
@@ -7360,7 +7354,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C422" t="s">
         <v>13</v>
@@ -7371,7 +7365,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C423" t="s">
         <v>17</v>
@@ -7382,7 +7376,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C424" t="s">
         <v>9</v>
@@ -7393,24 +7387,24 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>526</v>
+      </c>
+      <c r="B425" t="s">
         <v>527</v>
       </c>
-      <c r="B425" t="s">
-        <v>528</v>
-      </c>
       <c r="C425" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D425" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>528</v>
+      </c>
+      <c r="B426" t="s">
         <v>529</v>
-      </c>
-      <c r="B426" t="s">
-        <v>530</v>
       </c>
       <c r="C426" t="s">
         <v>17</v>
@@ -7421,71 +7415,71 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B427" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C427" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D427" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B428" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C428" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D428" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C429" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D429" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>533</v>
+      </c>
+      <c r="B430" t="s">
         <v>534</v>
       </c>
-      <c r="B430" t="s">
-        <v>535</v>
-      </c>
       <c r="C430" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D430" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C431" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D431" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C432" t="s">
         <v>6</v>
@@ -7496,10 +7490,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B433" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C433" t="s">
         <v>17</v>
@@ -7510,18 +7504,18 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C434" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D434" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C435" t="s">
         <v>9</v>
@@ -7532,7 +7526,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C436" t="s">
         <v>9</v>
@@ -7543,46 +7537,46 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>541</v>
+      </c>
+      <c r="B437" t="s">
         <v>542</v>
       </c>
-      <c r="B437" t="s">
-        <v>543</v>
-      </c>
       <c r="C437" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D437" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C438" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D438" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>544</v>
+      </c>
+      <c r="B439" t="s">
         <v>545</v>
       </c>
-      <c r="B439" t="s">
-        <v>546</v>
-      </c>
       <c r="C439" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D439" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C440" t="s">
         <v>9</v>
@@ -7593,18 +7587,18 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C441" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D441" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C442" t="s">
         <v>13</v>
@@ -7615,32 +7609,32 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C443" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D443" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C444" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D444" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>551</v>
+      </c>
+      <c r="B445" t="s">
         <v>552</v>
-      </c>
-      <c r="B445" t="s">
-        <v>553</v>
       </c>
       <c r="C445" t="s">
         <v>13</v>
@@ -7651,10 +7645,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B446" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C446" t="s">
         <v>13</v>
@@ -7665,7 +7659,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -7676,18 +7670,18 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C448" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D448" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C449" t="s">
         <v>13</v>
@@ -7698,21 +7692,21 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C450" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D450" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B451" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C451" t="s">
         <v>9</v>
@@ -7723,7 +7717,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C452" t="s">
         <v>17</v>
@@ -7734,18 +7728,18 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C453" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D453" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C454" t="s">
         <v>13</v>
@@ -7756,7 +7750,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -7767,38 +7761,38 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B456" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C456" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D456" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B457" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C457" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D457" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B458" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C458" t="s">
         <v>17</v>
@@ -7809,21 +7803,21 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>565</v>
+      </c>
+      <c r="C459" t="s">
         <v>566</v>
       </c>
-      <c r="C459" t="s">
-        <v>567</v>
-      </c>
       <c r="D459" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>567</v>
+      </c>
+      <c r="B460" t="s">
         <v>568</v>
-      </c>
-      <c r="B460" t="s">
-        <v>569</v>
       </c>
       <c r="C460" t="s">
         <v>6</v>
@@ -7834,54 +7828,54 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C461" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D461" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B462" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C462" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D462" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C463" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D463" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C464" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D464" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C465" t="s">
         <v>17</v>
@@ -7892,29 +7886,29 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C466" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D466" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C467" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D467" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C468" t="s">
         <v>6</v>
@@ -7925,7 +7919,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C469" t="s">
         <v>17</v>
@@ -7936,7 +7930,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C470" t="s">
         <v>17</v>
@@ -7947,7 +7941,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C471" t="s">
         <v>17</v>
@@ -7958,21 +7952,21 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>580</v>
+      </c>
+      <c r="B472" t="s">
         <v>581</v>
       </c>
-      <c r="B472" t="s">
-        <v>582</v>
-      </c>
       <c r="C472" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D472" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C473" t="s">
         <v>13</v>
@@ -7983,10 +7977,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B474" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C474" t="s">
         <v>17</v>
@@ -7997,29 +7991,29 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C475" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D475" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C476" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D476" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C477" t="s">
         <v>17</v>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C478" t="s">
         <v>17</v>
@@ -8041,63 +8035,63 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B479" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C479" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D479" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B480" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C480" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D480" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C481" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D481" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B482" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C482" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D482" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B483" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C483" t="s">
         <v>17</v>
@@ -8108,7 +8102,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C484" t="s">
         <v>17</v>
@@ -8119,21 +8113,21 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C485" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D485" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B486" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C486" t="s">
         <v>13</v>
@@ -8144,29 +8138,29 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C487" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D487" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C488" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D488" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C489" t="s">
         <v>17</v>
@@ -8177,7 +8171,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C490" t="s">
         <v>17</v>
@@ -8188,10 +8182,10 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B491" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C491" t="s">
         <v>17</v>
@@ -8202,7 +8196,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C492" t="s">
         <v>17</v>
@@ -8213,10 +8207,10 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>600</v>
+      </c>
+      <c r="B493" t="s">
         <v>601</v>
-      </c>
-      <c r="B493" t="s">
-        <v>602</v>
       </c>
       <c r="C493" t="s">
         <v>17</v>
@@ -8227,40 +8221,40 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C494" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D494" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C495" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D495" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C496" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D496" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C497" t="s">
         <v>13</v>
@@ -8271,7 +8265,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C498" t="s">
         <v>13</v>
@@ -8282,10 +8276,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B499" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C499" t="s">
         <v>13</v>
@@ -8296,7 +8290,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C500" t="s">
         <v>13</v>
@@ -8307,10 +8301,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>608</v>
+      </c>
+      <c r="B501" t="s">
         <v>609</v>
-      </c>
-      <c r="B501" t="s">
-        <v>610</v>
       </c>
       <c r="C501" t="s">
         <v>17</v>
@@ -8321,7 +8315,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C502" t="s">
         <v>13</v>
@@ -8332,32 +8326,32 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>611</v>
+      </c>
+      <c r="B503" t="s">
         <v>612</v>
       </c>
-      <c r="B503" t="s">
-        <v>613</v>
-      </c>
       <c r="C503" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D503" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C504" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D504" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C505" t="s">
         <v>6</v>
@@ -8368,29 +8362,29 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C506" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D506" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C507" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D507" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C508" t="s">
         <v>17</v>
@@ -8401,35 +8395,35 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B509" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C509" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D509" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>619</v>
+      </c>
+      <c r="B510" t="s">
         <v>620</v>
       </c>
-      <c r="B510" t="s">
-        <v>621</v>
-      </c>
       <c r="C510" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D510" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C511" t="s">
         <v>17</v>
@@ -8440,7 +8434,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C512" t="s">
         <v>17</v>
@@ -8451,10 +8445,10 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B513" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C513" t="s">
         <v>13</v>
@@ -8465,10 +8459,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>623</v>
+      </c>
+      <c r="B514" t="s">
         <v>624</v>
-      </c>
-      <c r="B514" t="s">
-        <v>625</v>
       </c>
       <c r="C514" t="s">
         <v>13</v>
@@ -8479,113 +8473,113 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B515" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C515" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D515" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>626</v>
+      </c>
+      <c r="B516" t="s">
         <v>627</v>
       </c>
-      <c r="B516" t="s">
-        <v>628</v>
-      </c>
       <c r="C516" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D516" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>628</v>
+      </c>
+      <c r="B517" t="s">
         <v>629</v>
       </c>
-      <c r="B517" t="s">
-        <v>630</v>
-      </c>
       <c r="C517" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D517" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>630</v>
+      </c>
+      <c r="B518" t="s">
         <v>631</v>
       </c>
-      <c r="B518" t="s">
-        <v>632</v>
-      </c>
       <c r="C518" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D518" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>632</v>
+      </c>
+      <c r="B519" t="s">
         <v>633</v>
       </c>
-      <c r="B519" t="s">
-        <v>634</v>
-      </c>
       <c r="C519" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D519" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C520" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D520" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C521" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D521" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>636</v>
+      </c>
+      <c r="B522" t="s">
         <v>637</v>
       </c>
-      <c r="B522" t="s">
-        <v>638</v>
-      </c>
       <c r="C522" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D522" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C523" t="s">
         <v>13</v>
@@ -8596,10 +8590,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>639</v>
+      </c>
+      <c r="B524" t="s">
         <v>640</v>
-      </c>
-      <c r="B524" t="s">
-        <v>641</v>
       </c>
       <c r="C524" t="s">
         <v>13</v>
@@ -8610,38 +8604,38 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B525" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C525" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D525" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>642</v>
+      </c>
+      <c r="B526" t="s">
         <v>643</v>
       </c>
-      <c r="B526" t="s">
-        <v>644</v>
-      </c>
       <c r="C526" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D526" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>644</v>
+      </c>
+      <c r="B527" t="s">
         <v>645</v>
-      </c>
-      <c r="B527" t="s">
-        <v>646</v>
       </c>
       <c r="C527" t="s">
         <v>13</v>
@@ -8652,29 +8646,29 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C528" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D528" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C529" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D529" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C530" t="s">
         <v>9</v>
@@ -8685,46 +8679,46 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>649</v>
+      </c>
+      <c r="B531" t="s">
         <v>650</v>
       </c>
-      <c r="B531" t="s">
-        <v>651</v>
-      </c>
       <c r="C531" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D531" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C532" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D532" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C533" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D533" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B534" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C534" t="s">
         <v>9</v>
@@ -8735,7 +8729,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C535" t="s">
         <v>13</v>
@@ -8746,10 +8740,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>655</v>
+      </c>
+      <c r="B536" t="s">
         <v>656</v>
-      </c>
-      <c r="B536" t="s">
-        <v>657</v>
       </c>
       <c r="C536" t="s">
         <v>13</v>
@@ -8760,32 +8754,32 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B537" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C537" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D537" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C538" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D538" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C539" t="s">
         <v>17</v>
@@ -8796,21 +8790,21 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C540" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D540" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B541" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C541" t="s">
         <v>13</v>
@@ -8821,10 +8815,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B542" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C542" t="s">
         <v>13</v>
@@ -8835,7 +8829,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C543" t="s">
         <v>13</v>
@@ -8846,10 +8840,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B544" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C544" t="s">
         <v>13</v>
@@ -8860,10 +8854,10 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B545" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C545" t="s">
         <v>13</v>
@@ -8874,21 +8868,21 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>666</v>
+      </c>
+      <c r="B546" t="s">
         <v>667</v>
       </c>
-      <c r="B546" t="s">
-        <v>668</v>
-      </c>
       <c r="C546" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D546" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C547" t="s">
         <v>13</v>
@@ -8899,7 +8893,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C548" t="s">
         <v>17</v>
@@ -8910,7 +8904,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C549" t="s">
         <v>13</v>
@@ -8921,7 +8915,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C550" t="s">
         <v>17</v>
@@ -8932,54 +8926,54 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C551" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D551" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C552" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D552" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C553" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D553" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C554" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D554" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>675</v>
+      </c>
+      <c r="B555" t="s">
         <v>676</v>
-      </c>
-      <c r="B555" t="s">
-        <v>677</v>
       </c>
       <c r="C555" t="s">
         <v>17</v>
@@ -8990,18 +8984,18 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C556" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D556" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C557" t="s">
         <v>17</v>
@@ -9012,10 +9006,10 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>679</v>
+      </c>
+      <c r="B558" t="s">
         <v>680</v>
-      </c>
-      <c r="B558" t="s">
-        <v>681</v>
       </c>
       <c r="C558" t="s">
         <v>17</v>
@@ -9026,29 +9020,29 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C559" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D559" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C560" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D560" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C561" t="s">
         <v>13</v>
@@ -9059,10 +9053,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B562" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C562" t="s">
         <v>17</v>
@@ -9073,7 +9067,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C563" t="s">
         <v>13</v>
@@ -9084,7 +9078,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C564" t="s">
         <v>13</v>
@@ -9095,10 +9089,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B565" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C565" t="s">
         <v>13</v>
@@ -9109,7 +9103,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C566" t="s">
         <v>13</v>
@@ -9120,10 +9114,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>689</v>
+      </c>
+      <c r="B567" t="s">
         <v>690</v>
-      </c>
-      <c r="B567" t="s">
-        <v>691</v>
       </c>
       <c r="C567" t="s">
         <v>17</v>
@@ -9134,18 +9128,18 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C568" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D568" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C569" t="s">
         <v>13</v>
@@ -9156,7 +9150,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C570" t="s">
         <v>17</v>
@@ -9167,18 +9161,18 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C571" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D571" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C572" t="s">
         <v>17</v>
@@ -9189,7 +9183,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C573" t="s">
         <v>13</v>
@@ -9200,74 +9194,74 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>697</v>
+      </c>
+      <c r="B574" t="s">
         <v>698</v>
       </c>
-      <c r="B574" t="s">
-        <v>699</v>
-      </c>
       <c r="C574" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D574" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>699</v>
+      </c>
+      <c r="B575" t="s">
         <v>700</v>
       </c>
-      <c r="B575" t="s">
-        <v>701</v>
-      </c>
       <c r="C575" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D575" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C576" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D576" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
+        <v>702</v>
+      </c>
+      <c r="B577" t="s">
         <v>703</v>
       </c>
-      <c r="B577" t="s">
-        <v>704</v>
-      </c>
       <c r="C577" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D577" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C578" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D578" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>705</v>
+      </c>
+      <c r="B579" t="s">
         <v>706</v>
-      </c>
-      <c r="B579" t="s">
-        <v>707</v>
       </c>
       <c r="C579" t="s">
         <v>13</v>
@@ -9278,18 +9272,18 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C580" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D580" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
